--- a/dongxw-service/src/main/resources/templates/issue_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/issue_template.xlsx
@@ -129,7 +129,7 @@
     <t>已发货量</t>
   </si>
   <si>
-    <t>订单余数</t>
+    <t>本次发货量</t>
   </si>
   <si>
     <t>单位</t>
@@ -181,9 +181,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -326,6 +326,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,14 +340,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +385,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -368,14 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,17 +430,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,49 +459,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,14 +473,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -495,187 +495,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,6 +785,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -802,15 +826,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -821,7 +836,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,36 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -889,10 +889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,134 +901,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,9 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1176,6 +1173,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="D18" sqref="D18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1520,6 +1520,7 @@
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="0.141666666666667" hidden="1" customWidth="1"/>
@@ -1540,8 +1541,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" ht="15.75" spans="1:11">
       <c r="A2" s="3"/>
@@ -1555,8 +1556,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3"/>
@@ -1570,8 +1571,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3"/>
@@ -1585,8 +1586,8 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="7"/>
@@ -1600,8 +1601,8 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="45"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="7"/>
@@ -1615,8 +1616,8 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="45"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" ht="31.5" spans="1:11">
       <c r="A7" s="9" t="s">
@@ -1630,8 +1631,8 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="45"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11"/>
@@ -1643,8 +1644,8 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" ht="15" spans="1:11">
       <c r="A9" s="14" t="s">
@@ -1659,11 +1660,11 @@
       <c r="H9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="45"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" ht="15" spans="1:11">
       <c r="A10" s="14" t="s">
@@ -1676,9 +1677,9 @@
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="45"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" ht="15" spans="1:11">
       <c r="A11" s="14" t="s">
@@ -1693,11 +1694,11 @@
       <c r="H11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" ht="15" spans="1:11">
       <c r="A12" s="14" t="s">
@@ -1710,9 +1711,9 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="45"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" ht="15" spans="1:11">
       <c r="A13" s="14" t="s">
@@ -1725,9 +1726,9 @@
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="45"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" ht="15" spans="1:11">
       <c r="A14" s="14" t="s">
@@ -1740,9 +1741,9 @@
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="45"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" ht="15.75" spans="1:11">
       <c r="A15" s="20"/>
@@ -1757,11 +1758,11 @@
       <c r="H15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="45"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="16"/>
@@ -1773,8 +1774,8 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="45"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" ht="15" spans="1:11">
       <c r="A17" s="24" t="s">
@@ -1804,8 +1805,8 @@
       <c r="I17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="45"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" ht="31" customHeight="1" spans="1:11">
       <c r="A18" s="25" t="s">
@@ -1820,69 +1821,69 @@
       <c r="D18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="45"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="58"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="59"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" ht="20.25" spans="1:11">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="60"/>
       <c r="J21" s="61"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="11:11">
-      <c r="K22" s="45"/>
+      <c r="K22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/dongxw-service/src/main/resources/templates/issue_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/issue_template.xlsx
@@ -7,56 +7,25 @@
     <workbookView windowWidth="23295" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="弘宇智能科技（广东）有限公司送货单EP2020-09-28-P" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="ID_76591B5FF6944560AD65018E8698AECB" descr="C:\Users\lisa\AppData\Local\Temp\LZI03T~FIOX4A`QE5_@UTP0.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:srcRect l="14445" r="9781"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="78105" y="104140"/>
-          <a:ext cx="885190" cy="1024255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-</etc:cellImages>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="46">
   <si>
     <t>深圳市东兴富科技有限公司</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Shenzhen Eastern-pro Technical Limited Company</t>
   </si>
   <si>
@@ -171,7 +140,22 @@
     <t>经手人：</t>
   </si>
   <si>
+    <t>制单人：</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
     <t>签收人：</t>
+  </si>
+  <si>
+    <t>1）交来货品，请即验收，加盖收货章，如有问题请于收货后三天内通知本公司，一经使用，不允许退货，收款时另开正式收据。</t>
+  </si>
+  <si>
+    <t>2）凡因有关的任何争议，如果协商不能解决，应提交中国国际经济贸易仲裁委员会深圳分会，按照申请该会执行的仲裁规则进行仲裁。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   仲裁裁决是终局的，对双方均有约束力。</t>
   </si>
 </sst>
 </file>
@@ -179,13 +163,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +304,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -339,8 +330,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,21 +449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -400,81 +464,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,7 +480,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,120 +582,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,60 +661,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,17 +700,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -784,6 +758,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -795,48 +800,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,11 +836,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,231 +874,223 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1131,6 +1108,12 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,46 +1121,33 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,9 +1155,6 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1509,381 +1476,698 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:H18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="0.141666666666667" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="0.125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_76591B5FF6944560AD65018E8698AECB",1)</f>
-        <v>=DISPIMG("ID_76591B5FF6944560AD65018E8698AECB",1)</v>
-      </c>
+    <row r="1" ht="24" customHeight="1" spans="1:10">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:11">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" ht="31.5" spans="1:11">
-      <c r="A7" s="9" t="s">
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" ht="15" spans="1:11">
-      <c r="A9" s="14" t="s">
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="31.5" spans="1:10">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" ht="15" spans="1:11">
+      <c r="I9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" ht="15" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" ht="15" spans="1:11">
+      <c r="I11" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:10">
       <c r="A12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" ht="15" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:10">
       <c r="A13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" ht="15" spans="1:11">
+        <v>16</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:10">
       <c r="A14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23" t="s">
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:10">
+      <c r="A15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="C15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" ht="15" spans="1:11">
-      <c r="A17" s="24" t="s">
+      <c r="I15" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="J15" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:10">
+      <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" ht="31" customHeight="1" spans="1:11">
-      <c r="A18" s="25" t="s">
+      <c r="I17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="J17" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="30.95" customHeight="1" spans="1:10">
+      <c r="A18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="H18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" ht="20.25" spans="1:11">
-      <c r="A21" s="38" t="s">
+      <c r="I18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="J18" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="20.25" spans="1:10">
+      <c r="A21" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>1</v>
+      </c>
       <c r="H21" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="44"/>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="2:2">
+      <c r="B23" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" spans="2:2">
+      <c r="B24" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1" spans="2:2">
+      <c r="B25" s="43" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1902,7 +2186,9 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:A5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter/>
 </worksheet>
 </file>